--- a/Progress_charts.xlsx
+++ b/Progress_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c6047bb88935478/Documents/GitHub/phillongworth.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{B521BB83-7F12-486E-832D-D2A800F21EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F195E7-0BE1-4EB4-B2CB-A070A14DB9ED}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{B521BB83-7F12-486E-832D-D2A800F21EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EFFC2A1-4CE3-4EA5-B16C-68ACA0CC5AEB}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="12" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99F1EB76-74A5-478B-97C9-6E993EFE6A9E}"/>
+    <workbookView xWindow="-23148" yWindow="12" windowWidth="23256" windowHeight="12576" xr2:uid="{99F1EB76-74A5-478B-97C9-6E993EFE6A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bridleway_progress_chart" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,10 +133,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -145,7 +145,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -169,6 +169,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{0BF655A7-9E52-432C-AA90-CDB4A47A46E8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
@@ -204,7 +208,7 @@
     <tableColumn id="4" xr3:uid="{C30DD4B2-2FC0-4398-A3F0-CBD7ED048C65}" uniqueName="4" name="% completed" queryTableFieldId="4" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{DD56D78A-D762-485A-9040-A3A7BC1C7E1D}" uniqueName="5" name="Total" queryTableFieldId="5" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -538,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA79C68-F95C-4EA5-A8DD-A964CA2D15B5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,24 +573,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>37.123000000000005</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>107.01500000000016</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.34689529505209504</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>144.48489529505224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -595,10 +599,10 @@
       <c r="C3">
         <v>1022</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.27299412915851273</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1097</v>
       </c>
     </row>
@@ -614,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE494DBD-86D6-47FE-9B0F-4CCCC2EE7498}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -633,18 +637,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>105.25862691879422</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>13605.062992125984</v>
       </c>
     </row>
